--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_20.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>935885.5120875206</v>
+        <v>909448.9567775705</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.0044347</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -701,13 +701,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,13 +738,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>19.84004947482878</v>
       </c>
       <c r="E3" t="n">
-        <v>139.2037313894189</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -786,16 +786,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -899,70 +899,70 @@
         <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>17.62610975548109</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>51.90280359853562</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>181.0201173812374</v>
@@ -1209,19 +1209,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>83.82366897073304</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>95.16904316421414</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X9" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1370,73 +1370,73 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F11" t="n">
+      <c r="J11" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G11" t="n">
+      <c r="T11" t="n">
+        <v>19.20171008547518</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23.37503692583649</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>153.6816173514498</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>133.186967585368</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V14" t="n">
         <v>205.5178444382804</v>
@@ -1670,7 +1670,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,13 +1683,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1698,16 +1698,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>108.5082340790873</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>9.336946277399546</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1844,65 +1844,65 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1968,28 +1968,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2157,22 +2157,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>12.94771755361648</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,25 +2208,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>173.1253988709765</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2290,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2318,67 +2318,67 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11.19305615617957</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,10 +2445,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>169.5521944243417</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>142.8009741436499</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
         <v>241.0142888776591</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>111.1751113141406</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2713,52 +2713,52 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2810,10 +2810,10 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>9.234466016111838</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2877,22 +2877,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>36.40754942051851</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>4.3203725898889</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,25 +3105,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>38.38161978185917</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3168,13 +3168,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>72.39544442095786</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3308,31 +3308,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3354,16 +3354,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>118.7386675653386</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>16.16726461546774</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3405,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="38">
@@ -3515,10 +3515,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>94.41048699370604</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,10 +3548,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3645,10 +3645,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3700,13 +3700,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>181.0201173812374</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V41" t="n">
         <v>205.5178444382804</v>
@@ -3819,22 +3819,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>82.66126100643983</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>47.29627918133474</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3977,10 +3977,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>171.0294181666926</v>
       </c>
     </row>
     <row r="45">
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>41.3997004011064</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>47.29627918133471</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.5178444382804</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.8838132313431</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="C2" t="n">
-        <v>224.0352098159517</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44142755506243</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="E2" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="F2" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="G2" t="n">
         <v>16.44142755506243</v>
@@ -4331,10 +4331,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
         <v>379.753706324525</v>
@@ -4349,31 +4349,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W2" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X2" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y2" t="n">
-        <v>406.8838132313431</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>480.4386961837225</v>
+        <v>36.481881570041</v>
       </c>
       <c r="C3" t="n">
-        <v>305.9856669025954</v>
+        <v>36.481881570041</v>
       </c>
       <c r="D3" t="n">
-        <v>157.0512572413442</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
         <v>16.44142755506243</v>
@@ -4416,7 +4416,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="M3" t="n">
-        <v>219.90409354896</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N3" t="n">
         <v>366.5706756325438</v>
@@ -4434,25 +4434,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>648.6540332037905</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U3" t="n">
-        <v>648.6540332037905</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="V3" t="n">
-        <v>648.6540332037905</v>
+        <v>204.697218590109</v>
       </c>
       <c r="W3" t="n">
-        <v>648.6540332037905</v>
+        <v>204.697218590109</v>
       </c>
       <c r="X3" t="n">
-        <v>648.6540332037905</v>
+        <v>204.697218590109</v>
       </c>
       <c r="Y3" t="n">
-        <v>648.6540332037905</v>
+        <v>204.697218590109</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4504,34 +4504,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C5" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4574,13 +4574,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4610,7 +4610,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Y5" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>238.668476211275</v>
+        <v>191.6485894889752</v>
       </c>
       <c r="C6" t="n">
-        <v>238.668476211275</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D6" t="n">
-        <v>238.668476211275</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E6" t="n">
-        <v>238.668476211275</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F6" t="n">
-        <v>238.668476211275</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8643249431123</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I6" t="n">
         <v>17.19556020784815</v>
@@ -4656,13 +4656,13 @@
         <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>618.608711759224</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O6" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4671,25 +4671,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>769.6443034111664</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>567.4577087699325</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>359.8639265090432</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>359.8639265090432</v>
       </c>
       <c r="W6" t="n">
-        <v>614.4775954922324</v>
+        <v>359.8639265090432</v>
       </c>
       <c r="X6" t="n">
-        <v>406.8838132313431</v>
+        <v>359.8639265090432</v>
       </c>
       <c r="Y6" t="n">
-        <v>406.8838132313431</v>
+        <v>359.8639265090432</v>
       </c>
     </row>
     <row r="7">
@@ -4787,10 +4787,10 @@
         <v>406.8838132313431</v>
       </c>
       <c r="E8" t="n">
-        <v>199.2900309704538</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F8" t="n">
-        <v>199.2900309704538</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="G8" t="n">
         <v>199.2900309704538</v>
@@ -4805,10 +4805,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
         <v>379.753706324525</v>
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>322.2134405336329</v>
+        <v>446.2622584721643</v>
       </c>
       <c r="C9" t="n">
-        <v>322.2134405336329</v>
+        <v>271.8092291910373</v>
       </c>
       <c r="D9" t="n">
-        <v>322.2134405336329</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E9" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F9" t="n">
         <v>16.44142755506243</v>
@@ -4890,16 +4890,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>435.9652341458732</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4920,13 +4920,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W9" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X9" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="Y9" t="n">
         <v>614.4775954922324</v>
-      </c>
-      <c r="X9" t="n">
-        <v>406.8838132313431</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="10">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="C11" t="n">
-        <v>639.2227743377304</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="D11" t="n">
-        <v>639.2227743377304</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="E11" t="n">
-        <v>431.628992076841</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="F11" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
         <v>379.753706324525</v>
@@ -5063,28 +5063,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="Y11" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5094,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>175.6788825605179</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>175.6788825605179</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>175.6788825605179</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
         <v>16.44142755506243</v>
@@ -5124,16 +5124,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>142.2888212580996</v>
       </c>
       <c r="M12" t="n">
-        <v>548.724319600695</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N12" t="n">
-        <v>548.724319600695</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O12" t="n">
-        <v>752.1869855945927</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P12" t="n">
         <v>752.6768192397923</v>
@@ -5142,28 +5142,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>184.6567645751305</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>184.6567645751305</v>
       </c>
       <c r="W12" t="n">
-        <v>614.4775954922324</v>
+        <v>184.6567645751305</v>
       </c>
       <c r="X12" t="n">
-        <v>406.8838132313431</v>
+        <v>184.6567645751305</v>
       </c>
       <c r="Y12" t="n">
-        <v>199.2900309704538</v>
+        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="13">
@@ -5194,10 +5194,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="I13" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C14" t="n">
         <v>16.44142755506243</v>
@@ -5285,43 +5285,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>811.9797623848946</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U14" t="n">
-        <v>811.9797623848946</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V14" t="n">
-        <v>604.3859801240053</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W14" t="n">
-        <v>396.792197863116</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X14" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y14" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.44142755506243</v>
+        <v>653.8560407330535</v>
       </c>
       <c r="C15" t="n">
-        <v>16.44142755506243</v>
+        <v>479.4030114519265</v>
       </c>
       <c r="D15" t="n">
-        <v>16.44142755506243</v>
+        <v>330.4686017906753</v>
       </c>
       <c r="E15" t="n">
-        <v>16.44142755506243</v>
+        <v>330.4686017906753</v>
       </c>
       <c r="F15" t="n">
-        <v>16.44142755506243</v>
+        <v>330.4686017906753</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>163.1080096386462</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O15" t="n">
         <v>570.0333416264414</v>
@@ -5382,25 +5382,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
         <v>16.44142755506243</v>
@@ -5458,28 +5458,28 @@
         <v>61.19242108896862</v>
       </c>
       <c r="R16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5537,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
         <v>19.28114311021272</v>
@@ -5595,16 +5595,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
         <v>964.0571555106362</v>
@@ -5616,28 +5616,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>728.9050472788936</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>485.4562706347935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>277.6047704292607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5701,19 +5701,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5777,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>206.8126749707503</v>
+        <v>325.807288741569</v>
       </c>
       <c r="C21" t="n">
-        <v>32.35964568962331</v>
+        <v>325.807288741569</v>
       </c>
       <c r="D21" t="n">
-        <v>32.35964568962331</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E21" t="n">
-        <v>32.35964568962331</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F21" t="n">
-        <v>32.35964568962331</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,10 +5835,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
         <v>542.809531908403</v>
@@ -5856,25 +5856,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>789.1830152369225</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>560.9593969733116</v>
       </c>
       <c r="V21" t="n">
-        <v>790.6398109613051</v>
+        <v>325.807288741569</v>
       </c>
       <c r="W21" t="n">
-        <v>790.6398109613051</v>
+        <v>325.807288741569</v>
       </c>
       <c r="X21" t="n">
-        <v>582.7883107557723</v>
+        <v>325.807288741569</v>
       </c>
       <c r="Y21" t="n">
-        <v>375.0280119908184</v>
+        <v>325.807288741569</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>749.627473042513</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>30.58726043968704</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>281.5846883638847</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C24" t="n">
-        <v>281.5846883638847</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6069,22 +6069,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6093,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>691.6227832106515</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>489.4361885694175</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>489.4361885694175</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V24" t="n">
-        <v>489.4361885694175</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W24" t="n">
-        <v>489.4361885694175</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X24" t="n">
-        <v>281.5846883638847</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y24" t="n">
-        <v>281.5846883638847</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="25">
@@ -6172,7 +6172,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
         <v>19.28114311021272</v>
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>325.7766548071333</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6248,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>812.6742080953335</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>569.2254314512334</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>55.04605772994853</v>
+        <v>131.5792353467183</v>
       </c>
       <c r="C27" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>55.04605772994853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6306,19 +6306,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>304.2053859195205</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>533.6469426057913</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V27" t="n">
-        <v>298.4948343740486</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W27" t="n">
-        <v>55.04605772994853</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X27" t="n">
-        <v>55.04605772994853</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y27" t="n">
-        <v>55.04605772994853</v>
+        <v>131.5792353467183</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6488,25 +6488,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>527.5764290961142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>284.1276524520142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>284.1276524520142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>284.1276524520142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>284.1276524520142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>344.6327430815143</v>
+        <v>340.2687303644548</v>
       </c>
       <c r="C30" t="n">
-        <v>170.1797138003873</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D30" t="n">
-        <v>170.1797138003873</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E30" t="n">
-        <v>133.4044113554191</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F30" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6549,7 +6549,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6573,19 +6573,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>959.6931427935767</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>959.6931427935767</v>
       </c>
       <c r="W30" t="n">
-        <v>720.6083788665362</v>
+        <v>716.2443661494767</v>
       </c>
       <c r="X30" t="n">
-        <v>720.6083788665362</v>
+        <v>716.2443661494767</v>
       </c>
       <c r="Y30" t="n">
-        <v>512.8480801015824</v>
+        <v>508.4840673845228</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
         <v>262.7299197543128</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>307.1033079837604</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="C33" t="n">
-        <v>132.6502787026334</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="D33" t="n">
-        <v>132.6502787026334</v>
+        <v>363.8224689997521</v>
       </c>
       <c r="E33" t="n">
-        <v>132.6502787026334</v>
+        <v>204.5850139942966</v>
       </c>
       <c r="F33" t="n">
-        <v>132.6502787026334</v>
+        <v>58.05045602118159</v>
       </c>
       <c r="G33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6780,22 +6780,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6816,13 +6816,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>890.9304439743152</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X33" t="n">
-        <v>683.0789437687823</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y33" t="n">
-        <v>475.3186450038284</v>
+        <v>512.7568786610034</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G34" t="n">
         <v>829.5248650203655</v>
@@ -6889,19 +6889,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6956,28 +6956,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y35" t="n">
         <v>19.28114311021272</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>481.618781308658</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="C36" t="n">
-        <v>481.618781308658</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="D36" t="n">
-        <v>481.618781308658</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="E36" t="n">
-        <v>481.618781308658</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="F36" t="n">
-        <v>361.6807332628614</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="G36" t="n">
-        <v>222.9499078454769</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>35.61171342886701</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7026,13 +7026,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7041,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W36" t="n">
-        <v>689.4702815141908</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X36" t="n">
-        <v>481.618781308658</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y36" t="n">
-        <v>481.618781308658</v>
+        <v>203.827050448935</v>
       </c>
     </row>
     <row r="37">
@@ -7114,28 +7114,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
         <v>19.28114311021272</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C38" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D38" t="n">
-        <v>358.0940480307835</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E38" t="n">
-        <v>358.0940480307835</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F38" t="n">
-        <v>114.6452713866835</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7196,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7254,13 +7254,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7293,10 +7293,10 @@
         <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
         <v>16.44142755506243</v>
@@ -7415,16 +7415,16 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7442,19 +7442,19 @@
         <v>639.2227743377304</v>
       </c>
       <c r="U41" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="42">
@@ -7467,19 +7467,19 @@
         <v>238.668476211275</v>
       </c>
       <c r="C42" t="n">
-        <v>238.668476211275</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="D42" t="n">
-        <v>238.668476211275</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="E42" t="n">
-        <v>155.1722529724469</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="F42" t="n">
-        <v>155.1722529724469</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="H42" t="n">
         <v>16.44142755506243</v>
@@ -7494,19 +7494,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M42" t="n">
-        <v>345.2616536067974</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N42" t="n">
-        <v>366.5706756325438</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O42" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>189.1984156022267</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
         <v>16.44142755506243</v>
@@ -7652,7 +7652,7 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
         <v>379.753706324525</v>
@@ -7673,10 +7673,10 @@
         <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T44" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U44" t="n">
         <v>604.3859801240053</v>
@@ -7691,7 +7691,7 @@
         <v>604.3859801240053</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.792197863116</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>190.8944568361894</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>59.01343940088492</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
@@ -7752,25 +7752,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U45" t="n">
-        <v>774.2973583780361</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V45" t="n">
-        <v>774.2973583780361</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W45" t="n">
-        <v>774.2973583780361</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="X45" t="n">
-        <v>566.7035761171468</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="Y45" t="n">
-        <v>359.1097938562575</v>
+        <v>233.4664686820119</v>
       </c>
     </row>
     <row r="46">
@@ -7979,13 +7979,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
@@ -8064,10 +8064,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N3" t="n">
-        <v>279.489774794024</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8222,16 +8222,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8304,16 +8304,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>201.9320071929585</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,13 +8453,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8538,10 +8538,10 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>233.7538122443171</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,13 +8690,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>415.4335334139435</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8772,19 +8772,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>139.0491612396719</v>
       </c>
       <c r="M12" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>134.4691888741278</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8933,16 +8933,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,19 +9006,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,10 +9252,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9483,13 +9483,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>299.7328472056018</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9969,7 +9969,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10197,10 +10197,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>359.8407857361378</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10674,16 +10674,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,16 +10902,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11063,10 +11063,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>383.7408211888696</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,22 +11142,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>209.1446748894994</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11300,10 +11300,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -22547,19 +22547,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>394.1424372895921</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22589,13 +22589,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22607,13 +22607,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22626,13 +22626,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>127.60501608981</v>
       </c>
       <c r="E3" t="n">
-        <v>18.44134906598205</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22674,16 +22674,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22744,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22787,7 +22787,7 @@
         <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
-        <v>173.6629242394455</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22850,7 +22850,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>205.2178212748162</v>
       </c>
     </row>
     <row r="6">
@@ -22863,7 +22863,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22875,13 +22875,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>119.7174074077296</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22911,22 +22911,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>119.7803675053022</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -23027,13 +23027,13 @@
         <v>149.1651971824026</v>
       </c>
       <c r="E8" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H8" t="n">
         <v>158.4546847345297</v>
@@ -23097,19 +23097,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>82.7095146791343</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>52.27602240042461</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -23160,13 +23160,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -23258,28 +23258,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>184.2527743897702</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,13 +23303,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>203.8941394786562</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23324,7 +23324,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23334,7 +23334,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>143.1581467240308</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23343,7 +23343,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23382,28 +23382,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>46.48311134337177</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23434,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>22.26350734189029</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>194.2434736043149</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23537,7 +23537,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23546,10 +23546,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>42.075732182894</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
         <v>122.2344140318545</v>
@@ -23558,7 +23558,7 @@
         <v>143.7231242791326</v>
       </c>
       <c r="X14" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23571,13 +23571,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23586,16 +23586,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>28.83528308412333</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23622,25 +23622,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>190.8277824174221</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23671,7 +23671,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>111.1469913286912</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23732,19 +23732,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23777,19 +23777,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23798,7 +23798,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23820,7 +23820,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>95.01151712483079</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -23856,28 +23856,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23941,7 +23941,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,16 +23966,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23984,7 +23984,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24017,16 +24017,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>316.5592023139553</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24045,22 +24045,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>124.3957996095942</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24069,7 +24069,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,25 +24096,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>27.03932982384507</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24178,13 +24178,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24206,7 +24206,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24215,19 +24215,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0.7562331984329429</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,25 +24248,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24282,10 +24282,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24300,7 +24300,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24333,10 +24333,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>2.130976679496143</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24348,10 +24348,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>62.97201105982759</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24412,10 +24412,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24440,13 +24440,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C26" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>292.2667739183906</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24488,7 +24488,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24506,7 +24506,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>145.2236497783945</v>
@@ -24522,7 +24522,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>61.53338767417517</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24534,7 +24534,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>101.9362516896722</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24570,25 +24570,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24646,7 +24646,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24677,10 +24677,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24698,10 +24698,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>201.2414235542941</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24728,13 +24728,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24765,22 +24765,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>121.2375310348824</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24813,7 +24813,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>221.6210094910859</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24838,7 +24838,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24889,7 +24889,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24968,13 +24968,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,25 +24993,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>98.96189738135146</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25056,13 +25056,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>179.2995387399617</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25129,7 +25129,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25196,31 +25196,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25242,16 +25242,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>26.33054482804529</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>73.22936823594733</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25281,7 +25281,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25293,13 +25293,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25354,7 +25354,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25369,7 +25369,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1127189901543</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="38">
@@ -25403,10 +25403,10 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>320.892250521429</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25436,10 +25436,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25482,7 +25482,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>107.4542187721549</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25533,10 +25533,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25588,13 +25588,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25643,7 +25643,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25682,7 +25682,7 @@
         <v>42.075732182894</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
         <v>122.2344140318545</v>
@@ -25707,22 +25707,22 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>74.98381944896111</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>64.93916505516172</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25865,10 +25865,10 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>194.2434736043149</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25913,13 +25913,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>215.208520489361</v>
       </c>
     </row>
     <row r="45">
@@ -25941,13 +25941,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>106.0453651635324</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25965,7 +25965,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,13 +25992,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>178.6451028996401</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26007,7 +26007,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0.1648513390239543</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>410271.8971049149</v>
+        <v>410271.897104915</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>410271.8971049149</v>
+        <v>410271.8971049148</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>432136.8384716081</v>
+        <v>432136.8384716079</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>432136.8384716082</v>
+        <v>432136.8384716081</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>432136.8384716081</v>
+        <v>432136.8384716082</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>432136.8384716082</v>
+        <v>432136.8384716081</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>410271.8971049148</v>
+        <v>410271.8971049149</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157757.6418349316</v>
+        <v>157757.6418349317</v>
       </c>
       <c r="C2" t="n">
         <v>157757.6418349316</v>
@@ -26326,7 +26326,7 @@
         <v>157757.6418349316</v>
       </c>
       <c r="G2" t="n">
-        <v>166160.6725313324</v>
+        <v>166160.6725313323</v>
       </c>
       <c r="H2" t="n">
         <v>166160.6725313324</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="C4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="D4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="E4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="F4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="G4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="P4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29816.33615350357</v>
+        <v>26729.19623487561</v>
       </c>
       <c r="C6" t="n">
-        <v>98690.09273519338</v>
+        <v>95602.95281656542</v>
       </c>
       <c r="D6" t="n">
-        <v>98690.09273519341</v>
+        <v>95602.95281656539</v>
       </c>
       <c r="E6" t="n">
-        <v>132317.6927351934</v>
+        <v>129230.5528165654</v>
       </c>
       <c r="F6" t="n">
-        <v>132317.6927351934</v>
+        <v>129230.5528165654</v>
       </c>
       <c r="G6" t="n">
-        <v>128117.1095940262</v>
+        <v>124863.2711524227</v>
       </c>
       <c r="H6" t="n">
-        <v>137846.1525681932</v>
+        <v>134592.3141265899</v>
       </c>
       <c r="I6" t="n">
-        <v>137846.1525681933</v>
+        <v>134592.3141265899</v>
       </c>
       <c r="J6" t="n">
-        <v>84073.64167798386</v>
+        <v>80819.80323638048</v>
       </c>
       <c r="K6" t="n">
-        <v>137846.1525681933</v>
+        <v>134592.3141265899</v>
       </c>
       <c r="L6" t="n">
-        <v>137846.1525681933</v>
+        <v>134592.3141265899</v>
       </c>
       <c r="M6" t="n">
-        <v>137846.1525681932</v>
+        <v>134592.3141265899</v>
       </c>
       <c r="N6" t="n">
-        <v>137846.1525681932</v>
+        <v>134592.3141265899</v>
       </c>
       <c r="O6" t="n">
-        <v>132317.6927351934</v>
+        <v>129230.5528165654</v>
       </c>
       <c r="P6" t="n">
-        <v>132317.6927351934</v>
+        <v>129230.5528165654</v>
       </c>
     </row>
   </sheetData>
@@ -34699,13 +34699,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
@@ -34784,10 +34784,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="N3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N3" t="n">
-        <v>148.1480627106907</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34942,16 +34942,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35024,16 +35024,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>70.5902951096252</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,13 +35173,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35258,10 +35258,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>185.0873001866707</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35492,19 +35492,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>205.5178444382804</v>
+        <v>0.4947814597977008</v>
       </c>
       <c r="M12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>0.494781459797586</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35653,16 +35653,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
@@ -35972,10 +35972,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36203,13 +36203,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N24" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>169.9091475161414</v>
-      </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>161.1784674257276</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36689,7 +36689,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>169.9067907798017</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37075,7 +37075,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37394,16 +37394,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37783,10 +37783,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>147.9744062188824</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37795,7 +37795,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,22 +37862,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
+        <v>70.5902951096252</v>
+      </c>
+      <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
       <c r="N42" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38020,10 +38020,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>909448.9567775705</v>
+        <v>910233.102715599</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4869861.021974551</v>
+        <v>4869861.021974552</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,7 +673,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="G2" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -701,28 +703,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,10 +740,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>19.84004947482878</v>
+        <v>47.29627918133474</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -789,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856712</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,76 +895,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="6">
@@ -1023,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>51.90280359853562</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -1032,7 +1034,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>51.90280359853556</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856712</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,76 +1132,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D8" t="n">
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
+      <c r="Y8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H8" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,13 +1214,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>14.48693373137008</v>
       </c>
       <c r="D9" t="n">
-        <v>95.16904316421414</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1266,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1330,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1382,58 +1384,58 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="T11" t="n">
-        <v>19.20171008547518</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>205.5178444382804</v>
@@ -1446,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1500,13 +1502,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>153.6816173514498</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>120.0500723064956</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1546,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1616,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,22 +1685,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>7.692106705274854</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>108.5082340790873</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -1786,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>71.01467844038818</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>21.18375537072436</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2053,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2096,58 +2098,58 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T20" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U20" t="n">
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V20" t="n">
-        <v>11.19305615617957</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="21">
@@ -2160,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2172,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2205,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>173.1253988709765</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2336,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,31 +2362,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,13 +2399,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>157.8643926765646</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2460,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>142.8009741436499</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2527,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,14 +2554,14 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
@@ -2570,13 +2572,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>88.93311775391584</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,16 +2599,16 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2618,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,19 +2636,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>111.1751113141406</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2688,16 +2690,16 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>117.9045753832816</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2713,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2789,76 +2791,76 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
+      <c r="H29" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,25 +2870,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>79.73605578874087</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>4.3203725898889</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2950,67 +2952,67 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>212.2853856434421</v>
       </c>
-      <c r="C32" t="n">
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>241.0142888776591</v>
@@ -3105,22 +3107,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>38.38161978185917</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3168,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2701752523862</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3199,43 +3201,43 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3275,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3308,31 +3310,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3357,13 +3359,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>16.16726461546774</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,10 +3395,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>118.7386675653386</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3405,13 +3407,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3466,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3506,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F38" t="n">
         <v>241.0142888776591</v>
@@ -3518,7 +3520,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3566,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3591,13 +3593,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>111.7765806969846</v>
       </c>
       <c r="G39" t="n">
-        <v>29.88929839105575</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3648,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3746,22 +3748,22 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>159.0801288120801</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3782,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3791,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3825,16 +3827,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>61.53749811925984</v>
       </c>
       <c r="H42" t="n">
-        <v>47.29627918133474</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3870,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3879,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3949,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3980,22 +3982,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,10 +4024,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4059,7 +4061,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>41.3997004011064</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4068,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4107,10 +4109,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>167.6468065498178</v>
       </c>
       <c r="U45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4122,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>453.0030327087026</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C2" t="n">
-        <v>453.0030327087026</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D2" t="n">
-        <v>453.0030327087026</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E2" t="n">
-        <v>245.4092504478133</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F2" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
         <v>16.44142755506243</v>
@@ -4337,43 +4339,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X2" t="n">
-        <v>453.0030327087026</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y2" t="n">
-        <v>453.0030327087026</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.481881570041</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C3" t="n">
-        <v>36.481881570041</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="D3" t="n">
         <v>16.44142755506243</v>
@@ -4410,13 +4412,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N3" t="n">
         <v>366.5706756325438</v>
@@ -4437,22 +4439,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>412.2910008509983</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V3" t="n">
-        <v>204.697218590109</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W3" t="n">
-        <v>204.697218590109</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X3" t="n">
-        <v>204.697218590109</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y3" t="n">
-        <v>204.697218590109</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4510,28 +4512,28 @@
         <v>61.19242108896862</v>
       </c>
       <c r="R4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4568,19 +4570,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O5" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4595,22 +4597,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X5" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y5" t="n">
-        <v>639.2227743377304</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="6">
@@ -4656,10 +4658,10 @@
         <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>548.724319600695</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P6" t="n">
         <v>752.6768192397923</v>
@@ -4671,13 +4673,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>769.6443034111664</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>567.4577087699325</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U6" t="n">
-        <v>359.8639265090432</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="V6" t="n">
         <v>359.8639265090432</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4747,28 +4749,28 @@
         <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C8" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E8" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
         <v>16.44142755506243</v>
@@ -4805,13 +4807,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
         <v>583.2163723184226</v>
@@ -4835,19 +4837,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X8" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y8" t="n">
-        <v>822.0713777531216</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>446.2622584721643</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="C9" t="n">
-        <v>271.8092291910373</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
-        <v>175.6788825605179</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E9" t="n">
         <v>16.44142755506243</v>
@@ -4884,19 +4886,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P9" t="n">
         <v>752.6768192397923</v>
@@ -4914,19 +4916,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X9" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y9" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J10" t="n">
         <v>38.93586374282289</v>
@@ -4978,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>236.1051990630351</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C11" t="n">
-        <v>236.1051990630351</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D11" t="n">
-        <v>236.1051990630351</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E11" t="n">
-        <v>236.1051990630351</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F11" t="n">
-        <v>236.1051990630351</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G11" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5048,13 +5050,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5063,28 +5065,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>443.6989813239244</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>443.6989813239244</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>443.6989813239244</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W11" t="n">
-        <v>443.6989813239244</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X11" t="n">
-        <v>443.6989813239244</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y11" t="n">
-        <v>236.1051990630351</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="12">
@@ -5124,16 +5126,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>142.2888212580996</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M12" t="n">
-        <v>345.7514872519972</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N12" t="n">
-        <v>549.2141532458947</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
         <v>752.6768192397923</v>
@@ -5148,22 +5150,22 @@
         <v>547.4845037566762</v>
       </c>
       <c r="T12" t="n">
-        <v>392.2505468360198</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U12" t="n">
-        <v>184.6567645751305</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V12" t="n">
-        <v>184.6567645751305</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W12" t="n">
-        <v>184.6567645751305</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X12" t="n">
-        <v>184.6567645751305</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y12" t="n">
-        <v>184.6567645751305</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="J13" t="n">
         <v>38.93586374282289</v>
@@ -5215,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5288,10 +5290,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5306,22 +5308,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>653.8560407330535</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C15" t="n">
-        <v>479.4030114519265</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="D15" t="n">
-        <v>330.4686017906753</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E15" t="n">
-        <v>330.4686017906753</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F15" t="n">
-        <v>330.4686017906753</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G15" t="n">
         <v>220.8643249431123</v>
@@ -5361,13 +5363,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M15" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>548.724319600695</v>
-      </c>
-      <c r="N15" t="n">
-        <v>570.0333416264414</v>
       </c>
       <c r="O15" t="n">
         <v>570.0333416264414</v>
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="C16" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="D16" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="E16" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="F16" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="G16" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="H16" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="I16" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="J16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5458,28 +5460,28 @@
         <v>61.19242108896862</v>
       </c>
       <c r="R16" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="S16" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="T16" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="U16" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="V16" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="W16" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="X16" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.44142755506243</v>
+        <v>61.19242108896862</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>942.6594228129348</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>731.528039392485</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U17" t="n">
-        <v>262.7299197543128</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5601,13 +5603,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5701,16 +5703,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>274.0360370837871</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>325.807288741569</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C21" t="n">
-        <v>325.807288741569</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D21" t="n">
-        <v>325.807288741569</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E21" t="n">
-        <v>166.5698337361135</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5835,46 +5837,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>789.1830152369225</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>560.9593969733116</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>325.807288741569</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W21" t="n">
-        <v>325.807288741569</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X21" t="n">
-        <v>325.807288741569</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y21" t="n">
-        <v>325.807288741569</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>30.58726043968704</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C23" t="n">
-        <v>30.58726043968704</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D23" t="n">
-        <v>30.58726043968704</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E23" t="n">
-        <v>30.58726043968704</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F23" t="n">
-        <v>30.58726043968704</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G23" t="n">
-        <v>30.58726043968704</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H23" t="n">
-        <v>30.58726043968704</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S23" t="n">
-        <v>742.8341567219593</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T23" t="n">
-        <v>517.4848137278872</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U23" t="n">
-        <v>274.0360370837871</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V23" t="n">
-        <v>30.58726043968704</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W23" t="n">
-        <v>30.58726043968704</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X23" t="n">
-        <v>30.58726043968704</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y23" t="n">
-        <v>30.58726043968704</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>342.668582052591</v>
+        <v>486.9119902784999</v>
       </c>
       <c r="C24" t="n">
-        <v>168.215552771464</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6075,10 +6077,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6108,10 +6110,10 @@
         <v>862.8876260635219</v>
       </c>
       <c r="X24" t="n">
-        <v>718.6442178376129</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y24" t="n">
-        <v>510.883919072659</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>131.5792353467183</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6306,16 +6308,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
         <v>964.0571555106362</v>
@@ -6336,19 +6338,19 @@
         <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>790.6398109613051</v>
+        <v>671.5442802711217</v>
       </c>
       <c r="V27" t="n">
-        <v>790.6398109613051</v>
+        <v>671.5442802711217</v>
       </c>
       <c r="W27" t="n">
-        <v>547.1910343172051</v>
+        <v>671.5442802711217</v>
       </c>
       <c r="X27" t="n">
-        <v>339.3395341116723</v>
+        <v>671.5442802711217</v>
       </c>
       <c r="Y27" t="n">
-        <v>131.5792353467183</v>
+        <v>463.7839815061678</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6493,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>340.2687303644548</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C30" t="n">
-        <v>165.8157010833278</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D30" t="n">
-        <v>165.8157010833278</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="E30" t="n">
-        <v>165.8157010833278</v>
+        <v>99.82261360389037</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>99.82261360389037</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>99.82261360389037</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6543,49 +6545,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>959.6931427935767</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V30" t="n">
-        <v>959.6931427935767</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W30" t="n">
-        <v>716.2443661494767</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X30" t="n">
-        <v>716.2443661494767</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y30" t="n">
-        <v>508.4840673845228</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="31">
@@ -6595,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
         <v>19.28114311021272</v>
@@ -6658,13 +6660,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="C32" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="D32" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="E32" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="F32" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="C32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F32" t="n">
-        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
         <v>262.7299197543128</v>
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>512.7568786610034</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C33" t="n">
-        <v>512.7568786610034</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D33" t="n">
-        <v>363.8224689997521</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E33" t="n">
-        <v>204.5850139942966</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F33" t="n">
-        <v>58.05045602118159</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6783,13 +6785,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M33" t="n">
+        <v>304.2053859195205</v>
+      </c>
+      <c r="N33" t="n">
         <v>542.809531908403</v>
-      </c>
-      <c r="N33" t="n">
-        <v>781.4136778972854</v>
       </c>
       <c r="O33" t="n">
         <v>781.4136778972854</v>
@@ -6816,13 +6818,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>720.6083788665362</v>
+        <v>749.6428370738824</v>
       </c>
       <c r="X33" t="n">
-        <v>512.7568786610034</v>
+        <v>541.7913368683496</v>
       </c>
       <c r="Y33" t="n">
-        <v>512.7568786610034</v>
+        <v>334.0310381033958</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
         <v>829.5248650203655</v>
@@ -6883,25 +6885,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>35.61171342886701</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="C36" t="n">
-        <v>35.61171342886701</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="D36" t="n">
-        <v>35.61171342886701</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="E36" t="n">
-        <v>35.61171342886701</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F36" t="n">
-        <v>35.61171342886701</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G36" t="n">
-        <v>35.61171342886701</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H36" t="n">
-        <v>35.61171342886701</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7023,16 +7025,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7043,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>569.5322334683942</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>569.5322334683942</v>
       </c>
       <c r="V36" t="n">
-        <v>862.8876260635219</v>
+        <v>569.5322334683942</v>
       </c>
       <c r="W36" t="n">
-        <v>619.4388494194218</v>
+        <v>569.5322334683942</v>
       </c>
       <c r="X36" t="n">
-        <v>411.587349213889</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.827050448935</v>
+        <v>361.6807332628614</v>
       </c>
     </row>
     <row r="37">
@@ -7114,28 +7116,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
         <v>19.28114311021272</v>
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D38" t="n">
         <v>720.6083788665362</v>
       </c>
       <c r="E38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7214,10 +7216,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>49.47235360622864</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C39" t="n">
-        <v>49.47235360622864</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D39" t="n">
-        <v>49.47235360622864</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E39" t="n">
-        <v>49.47235360622864</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="F39" t="n">
-        <v>49.47235360622864</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7254,19 +7256,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X39" t="n">
-        <v>257.2326523711826</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y39" t="n">
-        <v>49.47235360622864</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="40">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
@@ -7418,10 +7420,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
         <v>732.4113224610707</v>
@@ -7430,31 +7432,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T41" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U41" t="n">
-        <v>431.628992076841</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V41" t="n">
-        <v>224.0352098159517</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W41" t="n">
-        <v>16.44142755506243</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X41" t="n">
-        <v>16.44142755506243</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.44142755506243</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>238.668476211275</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="C42" t="n">
-        <v>64.21544693014803</v>
+        <v>237.8379715698713</v>
       </c>
       <c r="D42" t="n">
-        <v>64.21544693014803</v>
+        <v>237.8379715698713</v>
       </c>
       <c r="E42" t="n">
-        <v>64.21544693014803</v>
+        <v>78.60051656441581</v>
       </c>
       <c r="F42" t="n">
-        <v>64.21544693014803</v>
+        <v>78.60051656441581</v>
       </c>
       <c r="G42" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
         <v>16.44142755506243</v>
@@ -7491,16 +7493,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>211.6833797714288</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>415.1460457653264</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>618.608711759224</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O42" t="n">
         <v>822.0713777531216</v>
@@ -7518,22 +7520,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>412.2910008509983</v>
       </c>
     </row>
     <row r="43">
@@ -7597,7 +7599,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
         <v>16.44142755506243</v>
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0352098159517</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="C44" t="n">
-        <v>224.0352098159517</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="I44" t="n">
         <v>16.44142755506243</v>
@@ -7649,10 +7651,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
         <v>379.753706324525</v>
@@ -7670,28 +7672,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S44" t="n">
-        <v>604.3859801240053</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T44" t="n">
-        <v>604.3859801240053</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U44" t="n">
-        <v>604.3859801240053</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V44" t="n">
-        <v>604.3859801240053</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W44" t="n">
-        <v>604.3859801240053</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X44" t="n">
-        <v>604.3859801240053</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="Y44" t="n">
-        <v>431.628992076841</v>
+        <v>660.5968149695918</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>233.4664686820119</v>
+        <v>479.3138245676109</v>
       </c>
       <c r="C45" t="n">
-        <v>59.01343940088492</v>
+        <v>304.8607952864839</v>
       </c>
       <c r="D45" t="n">
-        <v>17.19556020784815</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="E45" t="n">
-        <v>17.19556020784815</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="F45" t="n">
-        <v>17.19556020784815</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="G45" t="n">
         <v>17.19556020784815</v>
@@ -7755,22 +7757,22 @@
         <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>648.6540332037905</v>
+        <v>479.3138245676109</v>
       </c>
       <c r="U45" t="n">
-        <v>441.0602509429012</v>
+        <v>479.3138245676109</v>
       </c>
       <c r="V45" t="n">
-        <v>441.0602509429012</v>
+        <v>479.3138245676109</v>
       </c>
       <c r="W45" t="n">
-        <v>441.0602509429012</v>
+        <v>479.3138245676109</v>
       </c>
       <c r="X45" t="n">
-        <v>441.0602509429012</v>
+        <v>479.3138245676109</v>
       </c>
       <c r="Y45" t="n">
-        <v>233.4664686820119</v>
+        <v>479.3138245676109</v>
       </c>
     </row>
     <row r="46">
@@ -7837,10 +7839,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
         <v>16.44142755506243</v>
@@ -7985,16 +7987,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>290.282096632709</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8216,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8228,10 +8230,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8304,13 +8306,13 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>131.836493543131</v>
       </c>
       <c r="O6" t="n">
-        <v>164.1205091169155</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8453,16 +8455,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8532,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>269.7148239424616</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8696,16 +8698,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8772,19 +8774,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>139.0491612396719</v>
+        <v>160.0786444523452</v>
       </c>
       <c r="M12" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8936,13 +8938,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>401.0105146732905</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,16 +9011,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9249,16 +9251,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O18" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9483,22 +9485,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,13 +9725,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9954,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9966,7 +9968,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10191,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N30" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,16 +10433,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M33" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10671,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,13 +10913,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>186.8580120236956</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11066,13 +11068,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11139,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>209.1446748894994</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
@@ -11151,7 +11153,7 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11297,13 +11299,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>311.3779718877592</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822432</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22559,7 +22561,7 @@
         <v>201.358201303431</v>
       </c>
       <c r="G2" t="n">
-        <v>394.1424372895921</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22589,13 +22591,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22610,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22626,10 +22628,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>127.60501608981</v>
+        <v>100.148786383304</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22677,13 +22679,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22692,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -22729,7 +22731,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22750,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786024</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22835,7 +22837,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>42.075732182894</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22847,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.2178212748162</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="6">
@@ -22911,7 +22913,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>119.7803675053022</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -22920,7 +22922,7 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>180.8977835508897</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22966,7 +22968,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786024</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23033,10 +23035,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>158.4546847345297</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23075,7 +23077,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23084,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23100,13 +23102,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>158.2215652569457</v>
       </c>
       <c r="D9" t="n">
-        <v>52.27602240042461</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23154,10 +23156,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23197,10 +23199,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23218,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23258,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23270,16 +23272,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>234.2826201338976</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,13 +23305,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>203.8941394786562</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23321,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
         <v>180.7200942177732</v>
@@ -23334,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23388,13 +23390,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>46.48311134337177</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>112.7505148429297</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23434,10 +23436,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>71.32518834398851</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,10 +23457,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23504,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23546,16 +23548,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>42.075732182894</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23571,22 +23573,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>165.0163922830409</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>28.83528308412333</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23674,10 +23676,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398851</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>335.8613673013232</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>128.6853625704253</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23941,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23984,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,31 +24013,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>316.5592023139553</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="21">
@@ -24048,10 +24050,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24060,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>27.03932982384507</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24224,10 +24226,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.7562331984329429</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,22 +24250,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>8.181203141508671</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24272,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24285,13 +24287,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>14.84410631175115</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24348,7 +24350,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>62.97201105982759</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24458,13 +24460,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>250.5416843618513</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,16 +24487,16 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24506,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24522,19 +24524,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>61.53338767417517</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24576,16 +24578,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>108.0368066976933</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24646,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24677,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24692,10 +24694,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24731,7 +24733,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24740,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>32.49938844775559</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>221.6210094910859</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24838,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,10 +24928,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>98.46051323810809</v>
@@ -24993,22 +24995,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>98.96189738135146</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25056,13 +25058,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>39.42480790853338</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25087,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25123,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25163,10 +25165,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25196,31 +25198,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>138.6760617849701</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25245,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>73.22936823594733</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25281,10 +25283,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>81.42606112948302</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25293,13 +25295,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25354,7 +25356,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25369,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>205.1127189901543</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25394,10 +25396,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F38" t="n">
         <v>165.8617568640524</v>
@@ -25406,7 +25408,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25454,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25479,13 +25481,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>33.29263169639931</v>
       </c>
       <c r="G39" t="n">
-        <v>107.4542187721549</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25524,7 +25526,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25536,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25634,22 +25636,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>222.8502412601817</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25679,16 +25681,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>42.075732182894</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25713,16 +25715,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>75.80601904395078</v>
       </c>
       <c r="H42" t="n">
-        <v>64.93916505516172</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25758,7 +25760,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25767,7 +25769,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25837,10 +25839,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25868,22 +25870,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>189.315589344863</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25910,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>215.208520489361</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25947,7 +25949,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>106.0453651635324</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25956,7 +25958,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25995,10 +25997,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>32.51792214500384</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26010,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26077,13 +26079,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>410271.8971049148</v>
+        <v>410271.8971049149</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>410271.897104915</v>
+        <v>410271.8971049149</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>410271.8971049149</v>
+        <v>410271.8971049148</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>410271.8971049148</v>
+        <v>410271.8971049149</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>432136.8384716079</v>
+        <v>432136.8384716081</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>432136.8384716081</v>
+        <v>432136.8384716082</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>432136.8384716082</v>
+        <v>432136.8384716081</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>432136.8384716081</v>
+        <v>432136.8384716082</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>432136.8384716081</v>
+        <v>432136.8384716082</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>410271.8971049148</v>
+        <v>410271.8971049149</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157757.6418349317</v>
+        <v>157757.6418349316</v>
       </c>
       <c r="C2" t="n">
         <v>157757.6418349316</v>
@@ -26323,16 +26325,16 @@
         <v>157757.6418349316</v>
       </c>
       <c r="F2" t="n">
-        <v>157757.6418349316</v>
+        <v>157757.6418349317</v>
       </c>
       <c r="G2" t="n">
-        <v>166160.6725313323</v>
+        <v>166160.6725313324</v>
       </c>
       <c r="H2" t="n">
         <v>166160.6725313324</v>
       </c>
       <c r="I2" t="n">
-        <v>166160.6725313324</v>
+        <v>166160.6725313323</v>
       </c>
       <c r="J2" t="n">
         <v>166160.6725313324</v>
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26729.19623487561</v>
+        <v>26729.19623487557</v>
       </c>
       <c r="C6" t="n">
-        <v>95602.95281656542</v>
+        <v>95602.9528165654</v>
       </c>
       <c r="D6" t="n">
-        <v>95602.95281656539</v>
+        <v>95602.9528165654</v>
       </c>
       <c r="E6" t="n">
         <v>129230.5528165654</v>
@@ -26534,22 +26536,22 @@
         <v>129230.5528165654</v>
       </c>
       <c r="G6" t="n">
-        <v>124863.2711524227</v>
+        <v>124863.2711524228</v>
       </c>
       <c r="H6" t="n">
         <v>134592.3141265899</v>
       </c>
       <c r="I6" t="n">
-        <v>134592.3141265899</v>
+        <v>134592.3141265898</v>
       </c>
       <c r="J6" t="n">
-        <v>80819.80323638048</v>
+        <v>80819.80323638041</v>
       </c>
       <c r="K6" t="n">
         <v>134592.3141265899</v>
       </c>
       <c r="L6" t="n">
-        <v>134592.3141265899</v>
+        <v>134592.3141265898</v>
       </c>
       <c r="M6" t="n">
         <v>134592.3141265899</v>
@@ -34705,16 +34707,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>148.1480627106907</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34936,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
@@ -34948,10 +34950,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35024,13 +35026,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>0.4947814597977008</v>
       </c>
       <c r="O6" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35173,16 +35175,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>127.1185794980172</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35416,16 +35418,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,19 +35494,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4947814597977008</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="M12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35656,13 +35658,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>171.5974510766996</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,16 +35731,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="O15" t="n">
         <v>21.52426467247106</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35969,16 +35971,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N18" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O18" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36203,22 +36205,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36674,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36686,7 +36688,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37075,7 +37077,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37151,16 +37153,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37391,19 +37393,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37631,13 +37633,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>55.51629994036225</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37786,13 +37788,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37859,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>70.5902951096252</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
@@ -37871,7 +37873,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>81.03173866048648</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>910233.102715599</v>
+        <v>806000.6044521556</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443469</v>
+        <v>18621122.00443468</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4869861.021974552</v>
+        <v>4869861.021974551</v>
       </c>
     </row>
     <row r="11">
@@ -658,65 +658,65 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="C2" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F2" t="n">
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>47.29627918133474</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,16 +858,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -940,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
-        <v>51.90280359853556</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="7">
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>205.5178444382804</v>
@@ -1214,10 +1214,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>14.48693373137008</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>110.722173798435</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1265,13 +1265,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1372,20 +1372,20 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>181.0201173812374</v>
-      </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
@@ -1414,19 +1414,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="V12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V12" t="n">
-        <v>120.0500723064956</v>
-      </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="13">
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1624,46 +1624,46 @@
         <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I14" t="n">
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1688,25 +1688,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1739,22 +1739,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>12.91814281012252</v>
       </c>
     </row>
     <row r="16">
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>71.01467844038818</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>58.39471844666277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1925,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1979,13 +1979,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>158.8085716643196</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>82.96396779500076</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2177,7 +2177,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>91.14896887224467</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,76 +2317,76 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.809496073036132</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>157.8643926765646</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2444,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>125.2226902263468</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,25 +2560,25 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>88.93311775391584</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2599,22 +2599,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2633,22 +2633,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>117.7259878520199</v>
       </c>
       <c r="U27" t="n">
-        <v>117.9045753832816</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2699,10 +2699,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2715,67 +2715,67 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="H29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>79.73605578874087</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,22 +2921,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>23.17871577922039</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3037,55 +3037,55 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="F32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>63.88882306452221</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>212.2701752523862</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3353,10 +3353,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>73.7244075246944</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -3365,7 +3365,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>118.7386675653386</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>241.0142888776591</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3593,19 +3593,19 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>111.7765806969846</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3647,10 +3647,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="40">
@@ -3663,52 +3663,52 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3748,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>159.0801288120801</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
     </row>
     <row r="42">
@@ -3827,13 +3827,13 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>61.53749811925984</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3872,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>8.311618392921693</v>
       </c>
     </row>
     <row r="43">
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,11 +3976,11 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="C44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>205.5178444382804</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4021,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="45">
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4106,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>167.6468065498178</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>19.84004947482875</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="46">
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431.628992076841</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C2" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D2" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
         <v>16.44142755506243</v>
@@ -4342,10 +4342,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4357,25 +4357,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W2" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X2" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y2" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
         <v>16.44142755506243</v>
@@ -4412,49 +4412,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>807.2329312674061</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>633.815586718075</v>
       </c>
       <c r="T3" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U3" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V3" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W3" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X3" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y3" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4506,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.0352098159517</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C5" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="D5" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="E5" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="F5" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="G5" t="n">
         <v>16.44142755506243</v>
@@ -4573,46 +4573,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M5" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
-        <v>752.6375612701642</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T5" t="n">
-        <v>639.2227743377304</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U5" t="n">
-        <v>639.2227743377304</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V5" t="n">
-        <v>639.2227743377304</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W5" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X5" t="n">
-        <v>431.628992076841</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y5" t="n">
-        <v>224.0352098159517</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>191.6485894889752</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N6" t="n">
-        <v>549.2141532458947</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4676,22 +4676,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>412.2910008509983</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V6" t="n">
-        <v>359.8639265090432</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W6" t="n">
-        <v>359.8639265090432</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X6" t="n">
-        <v>359.8639265090432</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y6" t="n">
-        <v>359.8639265090432</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4743,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.44142755506243</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44142755506243</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="E8" t="n">
-        <v>16.44142755506243</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H8" t="n">
         <v>16.44142755506243</v>
@@ -4807,13 +4807,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
         <v>583.2163723184226</v>
@@ -4825,31 +4825,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U8" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V8" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W8" t="n">
-        <v>614.4775954922324</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X8" t="n">
-        <v>406.8838132313431</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="Y8" t="n">
-        <v>199.2900309704538</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31.07469395038575</v>
+        <v>451.6694460918196</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>277.2164168106925</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>128.2820071494413</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>128.2820071494413</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>128.2820071494413</v>
       </c>
       <c r="G9" t="n">
         <v>16.44142755506243</v>
@@ -4886,22 +4886,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>423.3667595428576</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>626.8294255367553</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O9" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4913,22 +4913,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U9" t="n">
-        <v>614.4775954922324</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V9" t="n">
-        <v>406.8838132313431</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W9" t="n">
-        <v>406.8838132313431</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="X9" t="n">
-        <v>406.8838132313431</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="Y9" t="n">
-        <v>199.2900309704538</v>
+        <v>619.8847831118876</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4980,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E11" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F11" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G11" t="n">
         <v>16.44142755506243</v>
@@ -5044,49 +5044,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X11" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y11" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="12">
@@ -5126,10 +5126,10 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>366.5706756325438</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N12" t="n">
         <v>366.5706756325438</v>
@@ -5144,25 +5144,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>137.7041268545529</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V12" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W12" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X12" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y12" t="n">
         <v>16.44142755506243</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5217,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5281,13 +5281,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N14" t="n">
         <v>583.2163723184226</v>
@@ -5305,25 +5305,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>191.6485894889752</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I15" t="n">
         <v>17.19556020784815</v>
@@ -5363,7 +5363,7 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
         <v>345.2616536067974</v>
@@ -5372,10 +5372,10 @@
         <v>548.724319600695</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
@@ -5387,22 +5387,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>204.697218590109</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>191.6485894889752</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5454,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>61.19242108896862</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>802.5825927271064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C17" t="n">
-        <v>802.5825927271064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D17" t="n">
-        <v>802.5825927271064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E17" t="n">
-        <v>802.5825927271064</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5545,22 +5545,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U17" t="n">
-        <v>802.5825927271064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V17" t="n">
-        <v>802.5825927271064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W17" t="n">
-        <v>802.5825927271064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X17" t="n">
-        <v>802.5825927271064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y17" t="n">
-        <v>802.5825927271064</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>340.2687303644548</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5627,19 +5627,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>340.2687303644548</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>340.2687303644548</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>340.2687303644548</v>
       </c>
     </row>
     <row r="19">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W20" t="n">
-        <v>477.1596022224361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X20" t="n">
-        <v>233.7108255783361</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>862.8876260635219</v>
+        <v>703.7721529630483</v>
       </c>
       <c r="C21" t="n">
-        <v>817.1412885554689</v>
+        <v>703.7721529630483</v>
       </c>
       <c r="D21" t="n">
-        <v>668.2068788942177</v>
+        <v>554.837743301797</v>
       </c>
       <c r="E21" t="n">
-        <v>508.9694238887622</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="F21" t="n">
-        <v>362.4348659156472</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H21" t="n">
         <v>110.334904905842</v>
@@ -5840,43 +5840,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>871.9874899831163</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>871.9874899831163</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>871.9874899831163</v>
       </c>
       <c r="U21" t="n">
-        <v>862.8876260635219</v>
+        <v>871.9874899831163</v>
       </c>
       <c r="V21" t="n">
-        <v>862.8876260635219</v>
+        <v>871.9874899831163</v>
       </c>
       <c r="W21" t="n">
-        <v>862.8876260635219</v>
+        <v>871.9874899831163</v>
       </c>
       <c r="X21" t="n">
-        <v>862.8876260635219</v>
+        <v>871.9874899831163</v>
       </c>
       <c r="Y21" t="n">
-        <v>862.8876260635219</v>
+        <v>871.9874899831163</v>
       </c>
     </row>
     <row r="22">
@@ -5946,7 +5946,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>962.2293816994886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>962.2293816994886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U23" t="n">
-        <v>962.2293816994886</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V23" t="n">
-        <v>962.2293816994886</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W23" t="n">
-        <v>962.2293816994886</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X23" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>486.9119902784999</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C24" t="n">
-        <v>327.4530077769195</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6077,43 +6077,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>837.5695896254374</v>
       </c>
       <c r="U24" t="n">
-        <v>862.8876260635219</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="V24" t="n">
-        <v>862.8876260635219</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="W24" t="n">
-        <v>862.8876260635219</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X24" t="n">
-        <v>862.8876260635219</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y24" t="n">
-        <v>655.1273272985679</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>577.2332497330343</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C26" t="n">
-        <v>577.2332497330343</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D26" t="n">
-        <v>333.7844730889342</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E26" t="n">
-        <v>333.7844730889342</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F26" t="n">
-        <v>333.7844730889342</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G26" t="n">
-        <v>333.7844730889342</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H26" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S26" t="n">
-        <v>802.5825927271064</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T26" t="n">
-        <v>577.2332497330343</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U26" t="n">
-        <v>577.2332497330343</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V26" t="n">
-        <v>577.2332497330343</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W26" t="n">
-        <v>577.2332497330343</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X26" t="n">
-        <v>577.2332497330343</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y26" t="n">
-        <v>577.2332497330343</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="27">
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>463.7839815061678</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C27" t="n">
-        <v>463.7839815061678</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>463.7839815061678</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>304.5465265007123</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
         <v>964.0571555106362</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>570.5551422697263</v>
       </c>
       <c r="U27" t="n">
-        <v>671.5442802711217</v>
+        <v>570.5551422697263</v>
       </c>
       <c r="V27" t="n">
-        <v>671.5442802711217</v>
+        <v>570.5551422697263</v>
       </c>
       <c r="W27" t="n">
-        <v>671.5442802711217</v>
+        <v>570.5551422697263</v>
       </c>
       <c r="X27" t="n">
-        <v>671.5442802711217</v>
+        <v>362.7036420641935</v>
       </c>
       <c r="Y27" t="n">
-        <v>463.7839815061678</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="28">
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
         <v>19.28114311021272</v>
@@ -6423,13 +6423,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="C29" t="n">
-        <v>477.1596022224361</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="D29" t="n">
-        <v>477.1596022224361</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="E29" t="n">
-        <v>477.1596022224361</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="F29" t="n">
-        <v>477.1596022224361</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6490,25 +6490,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X29" t="n">
-        <v>477.1596022224361</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>527.5764290961142</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>259.0600686093459</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C30" t="n">
-        <v>259.0600686093459</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D30" t="n">
-        <v>259.0600686093459</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E30" t="n">
-        <v>99.82261360389037</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F30" t="n">
-        <v>99.82261360389037</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G30" t="n">
-        <v>99.82261360389037</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6551,16 +6551,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6569,25 +6569,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>259.0600686093459</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V30" t="n">
-        <v>259.0600686093459</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W30" t="n">
-        <v>259.0600686093459</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X30" t="n">
-        <v>259.0600686093459</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="Y30" t="n">
-        <v>259.0600686093459</v>
+        <v>132.6502787026334</v>
       </c>
     </row>
     <row r="31">
@@ -6648,16 +6648,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>720.6083788665362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C32" t="n">
-        <v>720.6083788665362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D32" t="n">
-        <v>720.6083788665362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E32" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6727,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y32" t="n">
-        <v>720.6083788665362</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6782,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>304.2053859195205</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W33" t="n">
-        <v>749.6428370738824</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X33" t="n">
-        <v>541.7913368683496</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>334.0310381033958</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>477.1596022224361</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6970,19 +6970,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>361.6807332628614</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="C36" t="n">
-        <v>361.6807332628614</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="D36" t="n">
-        <v>361.6807332628614</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="E36" t="n">
-        <v>361.6807332628614</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F36" t="n">
-        <v>361.6807332628614</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G36" t="n">
-        <v>222.9499078454769</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7022,13 +7022,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
         <v>712.019119383956</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>569.5322334683942</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>569.5322334683942</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>569.5322334683942</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W36" t="n">
-        <v>569.5322334683942</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X36" t="n">
-        <v>361.6807332628614</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="Y36" t="n">
-        <v>361.6807332628614</v>
+        <v>492.3847606029253</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
         <v>19.28114311021272</v>
@@ -7116,31 +7116,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
         <v>506.1786963984129</v>
@@ -7204,22 +7204,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>384.2867411876791</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>384.2867411876791</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>384.2867411876791</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>384.2867411876791</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>271.3811041200179</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
         <v>725.4530095217538</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>627.7355178317791</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>384.2867411876791</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>384.2867411876791</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>384.2867411876791</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>604.3859801240053</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="C41" t="n">
-        <v>604.3859801240053</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="D41" t="n">
-        <v>604.3859801240053</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="E41" t="n">
         <v>443.6989813239244</v>
@@ -7402,7 +7402,7 @@
         <v>236.1051990630351</v>
       </c>
       <c r="G41" t="n">
-        <v>236.1051990630351</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H41" t="n">
         <v>28.51141680214578</v>
@@ -7423,40 +7423,40 @@
         <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U41" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V41" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W41" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X41" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y41" t="n">
-        <v>604.3859801240053</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>412.2910008509983</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C42" t="n">
-        <v>237.8379715698713</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>237.8379715698713</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>78.60051656441581</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>78.60051656441581</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
         <v>16.44142755506243</v>
@@ -7493,16 +7493,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>423.3667595428576</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N42" t="n">
-        <v>626.8294255367553</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O42" t="n">
         <v>822.0713777531216</v>
@@ -7520,22 +7520,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>619.8847831118876</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V42" t="n">
-        <v>619.8847831118876</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W42" t="n">
-        <v>619.8847831118876</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X42" t="n">
-        <v>619.8847831118876</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y42" t="n">
-        <v>412.2910008509983</v>
+        <v>190.8944568361894</v>
       </c>
     </row>
     <row r="43">
@@ -7599,13 +7599,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
         <v>16.44142755506243</v>
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>453.0030327087026</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C44" t="n">
-        <v>453.0030327087026</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
-        <v>453.0030327087026</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>453.0030327087026</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>245.4092504478133</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
         <v>16.44142755506243</v>
@@ -7651,10 +7651,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
         <v>379.753706324525</v>
@@ -7669,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y44" t="n">
-        <v>660.5968149695918</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>479.3138245676109</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>304.8607952864839</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>155.9263856252326</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>155.9263856252326</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>155.9263856252326</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
@@ -7733,19 +7733,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>16.44142755506243</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>163.1080096386462</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7754,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>479.3138245676109</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U45" t="n">
-        <v>479.3138245676109</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="V45" t="n">
-        <v>479.3138245676109</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="W45" t="n">
-        <v>479.3138245676109</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="X45" t="n">
-        <v>479.3138245676109</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="Y45" t="n">
-        <v>479.3138245676109</v>
+        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="46">
@@ -7830,13 +7830,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U46" t="n">
         <v>16.44142755506243</v>
@@ -7990,13 +7990,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O2" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,7 +8221,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
@@ -8233,7 +8233,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
@@ -8306,16 +8306,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.836493543131</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,16 +8455,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N8" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>344.0722242181546</v>
@@ -8543,16 +8543,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>269.7148239424616</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8774,13 +8774,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>160.0786444523452</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -8929,16 +8929,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M14" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9011,22 +9011,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>164.1205091169155</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9245,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>301.248502863135</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9488,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O21" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9725,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>301.2485028631349</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9968,7 +9968,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>255.9771075721939</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10199,7 +10199,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,13 +10430,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10670,16 +10670,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10904,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11071,13 +11071,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O41" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
@@ -11153,7 +11153,7 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>339.8103375922893</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11299,13 +11299,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>415.4335334139435</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11381,13 +11381,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>201.7137242822432</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22597,13 +22597,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22612,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22625,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>100.148786383304</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22673,19 +22673,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>85.46777213178478</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22694,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22731,7 +22731,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,16 +22746,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22783,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>394.1424372895921</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22828,16 +22828,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>42.075732182894</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22846,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22916,22 +22916,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
-        <v>180.8977835508897</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>70.67486577968216</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -22968,7 +22968,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23010,7 +23010,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>201.7137242822431</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,13 +23032,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>385.7157455161685</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23065,10 +23065,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23077,7 +23077,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>180.7200942177732</v>
@@ -23102,10 +23102,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>158.2215652569457</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23114,7 +23114,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>26.62134336477561</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23153,13 +23153,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23168,7 +23168,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23205,7 +23205,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>234.2826201338976</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23302,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>201.9355493385884</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>20.42353764269441</v>
+        <v>44.92126469973746</v>
       </c>
       <c r="V12" t="n">
-        <v>112.7505148429297</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="13">
@@ -23439,10 +23439,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>71.32518834398851</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,10 +23457,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23472,7 +23472,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23512,10 +23512,10 @@
         <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23545,13 +23545,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>70.32553552659908</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23576,25 +23576,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23627,22 +23627,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>192.7645529671819</v>
       </c>
     </row>
     <row r="16">
@@ -23676,10 +23676,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>71.32518834398851</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,10 +23694,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
@@ -23709,7 +23709,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23740,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>335.8613673013232</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,10 +23785,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>192.9509344611737</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23813,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23867,13 +23867,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>92.88641149660003</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23974,7 +23974,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>271.7190738256822</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23983,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24013,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24031,13 +24031,13 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24065,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.008865280398467</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24186,10 +24186,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24223,10 +24223,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24250,31 +24250,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>8.181203141508671</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>366.4657846212723</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>14.84410631175115</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>74.94203846847478</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24350,7 +24350,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24448,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24460,13 +24460,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>250.5416843618513</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,22 +24487,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>8.181203141508671</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24521,22 +24521,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>82.43874084280175</v>
       </c>
       <c r="U27" t="n">
-        <v>108.0368066976933</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24587,10 +24587,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24685,19 +24685,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>394.1189821444107</v>
       </c>
       <c r="H29" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24730,10 +24730,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24742,10 +24742,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24767,7 +24767,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24776,7 +24776,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>32.49938844775559</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24809,22 +24809,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>182.5942694242571</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24888,7 +24888,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24925,16 +24925,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>360.7466147015374</v>
       </c>
       <c r="F32" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24967,13 +24967,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25007,7 +25007,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25046,25 +25046,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>136.2759056302994</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>39.42480790853338</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25125,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25165,13 +25165,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25210,10 +25210,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25241,10 +25241,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>83.92067293070654</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -25253,7 +25253,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25280,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>81.42606112948302</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25356,7 +25356,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25371,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1127189901543</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25399,7 +25399,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>165.8617568640524</v>
@@ -25444,7 +25444,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25456,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25481,19 +25481,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>33.29263169639931</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25526,7 +25526,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25535,10 +25535,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="40">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25596,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25636,16 +25636,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>222.8502412601817</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25681,10 +25681,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>217.1671106294287</v>
       </c>
     </row>
     <row r="42">
@@ -25715,13 +25715,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>75.80601904395078</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25760,22 +25760,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>197.3710773843827</v>
       </c>
     </row>
     <row r="43">
@@ -25839,7 +25839,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>201.7137242822432</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25876,7 +25876,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>209.7848930768546</v>
@@ -25885,7 +25885,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>189.315589344863</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25909,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="45">
@@ -25943,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25958,7 +25958,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25994,25 +25994,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>32.51792214500384</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>231.8549336860908</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26079,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>410271.8971049149</v>
+        <v>410271.8971049148</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>410271.8971049149</v>
+        <v>410271.8971049148</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>410271.8971049149</v>
+        <v>410271.8971049148</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>432136.8384716082</v>
+        <v>432136.8384716081</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>432136.8384716082</v>
+        <v>432136.8384716079</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>432136.8384716082</v>
+        <v>432136.8384716081</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>432136.8384716081</v>
+        <v>432136.8384716079</v>
       </c>
     </row>
     <row r="14">
@@ -26325,7 +26325,7 @@
         <v>157757.6418349316</v>
       </c>
       <c r="F2" t="n">
-        <v>157757.6418349317</v>
+        <v>157757.6418349316</v>
       </c>
       <c r="G2" t="n">
         <v>166160.6725313324</v>
@@ -26334,7 +26334,7 @@
         <v>166160.6725313324</v>
       </c>
       <c r="I2" t="n">
-        <v>166160.6725313323</v>
+        <v>166160.6725313324</v>
       </c>
       <c r="J2" t="n">
         <v>166160.6725313324</v>
@@ -26352,7 +26352,7 @@
         <v>166160.6725313324</v>
       </c>
       <c r="O2" t="n">
-        <v>157757.6418349316</v>
+        <v>157757.6418349315</v>
       </c>
       <c r="P2" t="n">
         <v>157757.6418349316</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26729.19623487557</v>
+        <v>14091.03408001507</v>
       </c>
       <c r="C6" t="n">
-        <v>95602.9528165654</v>
+        <v>82964.79066170484</v>
       </c>
       <c r="D6" t="n">
-        <v>95602.9528165654</v>
+        <v>82964.7906617049</v>
       </c>
       <c r="E6" t="n">
-        <v>129230.5528165654</v>
+        <v>116592.3906617048</v>
       </c>
       <c r="F6" t="n">
-        <v>129230.5528165654</v>
+        <v>116592.3906617049</v>
       </c>
       <c r="G6" t="n">
-        <v>124863.2711524228</v>
+        <v>112645.2605323823</v>
       </c>
       <c r="H6" t="n">
-        <v>134592.3141265899</v>
+        <v>122374.3035065494</v>
       </c>
       <c r="I6" t="n">
-        <v>134592.3141265898</v>
+        <v>122374.3035065494</v>
       </c>
       <c r="J6" t="n">
-        <v>80819.80323638041</v>
+        <v>68601.79261634</v>
       </c>
       <c r="K6" t="n">
-        <v>134592.3141265899</v>
+        <v>122374.3035065494</v>
       </c>
       <c r="L6" t="n">
-        <v>134592.3141265898</v>
+        <v>122374.3035065494</v>
       </c>
       <c r="M6" t="n">
-        <v>134592.3141265899</v>
+        <v>122374.3035065494</v>
       </c>
       <c r="N6" t="n">
-        <v>134592.3141265899</v>
+        <v>122374.3035065494</v>
       </c>
       <c r="O6" t="n">
-        <v>129230.5528165654</v>
+        <v>116592.3906617048</v>
       </c>
       <c r="P6" t="n">
-        <v>129230.5528165654</v>
+        <v>116592.3906617049</v>
       </c>
     </row>
   </sheetData>
@@ -34710,13 +34710,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O2" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,7 +34941,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
@@ -34953,7 +34953,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
@@ -35026,16 +35026,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4947814597977008</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,16 +35175,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
+        <v>185.0873001866707</v>
+      </c>
+      <c r="N8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N8" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>205.5178444382804</v>
@@ -35263,16 +35263,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>127.1185794980172</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35494,13 +35494,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>21.52426467247106</v>
-      </c>
-      <c r="M12" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35649,16 +35649,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35731,22 +35731,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>21.52426467247106</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>169.9067907798017</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>99.8112771299739</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36688,7 +36688,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>113.3808631277494</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36931,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37791,13 +37791,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O41" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
@@ -37873,7 +37873,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>197.2140931478448</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>185.0873001866707</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38101,13 +38101,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
@@ -38116,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
